--- a/test/AppDownTimeLog.xlsx
+++ b/test/AppDownTimeLog.xlsx
@@ -1,23 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet0" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Sheet01" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Sheet02" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Sheet03" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Sheet04" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Sheet05" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Sheet06" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Sheet07" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Sheet08" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Sheet09" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet0" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet01" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet02" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet03" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet04" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet05" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet06" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet07" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet08" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet09" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet010" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet011" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet012" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet013" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet014" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet015" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet016" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet017" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet018" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet019" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet020" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet021" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet022" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet023" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet024" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet025" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet026" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet027" sheetId="29" state="visible" r:id="rId29"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1400,6 +1418,358 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AppName</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Down Time</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Up Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>App1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>App1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AppName</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Down Time</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Up Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>App1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AppName</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Down Time</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Up Time</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AppName</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Down Time</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Up Time</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AppName</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Down Time</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Up Time</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AppName</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Down Time</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Up Time</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AppName</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Down Time</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Up Time</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AppName</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Down Time</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Up Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>App1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -2053,6 +2423,526 @@
       </c>
       <c r="D40" t="n">
         <v>370646.2462613047</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AppName</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Down Time</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Up Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>App1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AppName</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Down Time</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Up Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>App1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AppName</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Down Time</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Up Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>App1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AppName</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Down Time</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Up Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>App1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AppName</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Down Time</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Up Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>App1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AppName</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Down Time</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Up Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>App1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AppName</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Down Time</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Up Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>App1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AppName</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Down Time</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Up Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>App1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AppName</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Down Time</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Up Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>App1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AppName</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Down Time</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Up Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>App1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/test/AppDownTimeLog.xlsx
+++ b/test/AppDownTimeLog.xlsx
@@ -1,41 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet0" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet01" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet02" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet03" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet04" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet05" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet06" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet07" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet08" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet09" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet010" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet011" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet012" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet013" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet014" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet015" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet016" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet017" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet018" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet019" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet020" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet021" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet022" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet023" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet024" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet025" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet026" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet027" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet0" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet01" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sheet02" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Sheet03" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Sheet04" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Sheet05" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Sheet06" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Sheet07" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Sheet08" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Sheet09" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Sheet010" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Sheet011" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Sheet012" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Sheet013" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Sheet014" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Sheet015" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Sheet016" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="Sheet017" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="Sheet018" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="Sheet019" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="Sheet020" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="Sheet021" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="Sheet022" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="Sheet023" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="Sheet024" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="Sheet025" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="Sheet026" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="Sheet027" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="Sheet028" sheetId="30" state="visible" r:id="rId30"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3242,6 +3243,58 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AppName</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Down Time</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Up Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>App1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
